--- a/hasil/2023_01_lipa_17.xlsx
+++ b/hasil/2023_01_lipa_17.xlsx
@@ -64,13 +64,13 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 30 Mei 2023</t>
+    <t>Ternate , 17 Juli 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
   </si>
   <si>
-    <t>Panitera,</t>
+    <t xml:space="preserve">Panitera, </t>
   </si>
   <si>
     <t>Drs. Djabir Sasole, M.H</t>
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -241,16 +241,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
   </cellXfs>
@@ -629,104 +633,104 @@
       </c>
     </row>
     <row r="6" spans="1:12" customHeight="1" ht="15.6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:12" customHeight="1" ht="15.6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:12" customHeight="1" ht="16.2">
-      <c r="A8" s="14">
+      <c r="A8" s="15">
         <v>1</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="15">
         <v>2</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>3</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="15">
         <v>4</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="15">
         <v>5</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="15">
         <v>6</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12" customHeight="1" ht="16.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:12" customHeight="1" ht="15.6">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:12" customHeight="1" ht="15.6">
-      <c r="A11" s="15">
+      <c r="A11" s="16">
         <v>1</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="17">
         <v>2940000</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="17">
         <v>50000</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="17">
         <v>0</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="17">
         <v>0</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="17">
         <v>0</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="17">
         <v>2990000</v>
       </c>
     </row>

--- a/hasil/2023_01_lipa_17.xlsx
+++ b/hasil/2023_01_lipa_17.xlsx
@@ -64,7 +64,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 17 Juli 2023</t>
+    <t>Ternate , 02 Agustus 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>

--- a/hasil/2023_01_lipa_17.xlsx
+++ b/hasil/2023_01_lipa_17.xlsx
@@ -64,7 +64,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 02 Agustus 2023</t>
+    <t>Ternate , 06 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
